--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF655B7-B364-7F4D-BB1B-0EFA88C3B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E2FE7-B355-304F-A5BA-B560CFF51FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>TEN</t>
   </si>
@@ -42,9 +42,6 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Pharcotinex</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -102,7 +99,13 @@
     <t>CKBS</t>
   </si>
   <si>
-    <t>xxxxxx</t>
+    <t>ILM001</t>
+  </si>
+  <si>
+    <t>ERA001</t>
+  </si>
+  <si>
+    <t>RAB003</t>
   </si>
 </sst>
 </file>
@@ -201,11 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +652,48 @@
           </cell>
           <cell r="E30">
             <v>52</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>BON008</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Bonzacim (Rosuvastatin 10mg)</v>
+          </cell>
+          <cell r="D31">
+            <v>8900</v>
+          </cell>
+          <cell r="E31">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ERA001</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Esotrax (Esomeprazole 20mg)</v>
+          </cell>
+          <cell r="D32">
+            <v>10800</v>
+          </cell>
+          <cell r="E32">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>RAB003</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Pharcotinex</v>
+          </cell>
+          <cell r="D33">
+            <v>3600</v>
+          </cell>
+          <cell r="E33">
+            <v>35</v>
           </cell>
         </row>
       </sheetData>
@@ -969,25 +1013,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>986409026</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,33 +1056,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>22</v>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Pharcotinex</v>
+      </c>
+      <c r="C2" s="6">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>3600</v>
       </c>
       <c r="D2" s="3">
+        <f>VLOOKUP(A2, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>35</v>
       </c>
       <c r="E2">
@@ -1048,38 +1095,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>52</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">D3-10</f>
+        <f t="shared" ref="E3:E18" si="0">D3-10</f>
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
+      <c r="A4" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
-      <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
-      <c r="D4" s="4">
-        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D4" s="3">
+        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E4">
@@ -1089,18 +1136,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Uvomo (Mosaprid citrat 5mg)</v>
       </c>
-      <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>3300</v>
       </c>
-      <c r="D5" s="4">
-        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D5" s="3">
+        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E5">
@@ -1110,18 +1157,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
-      <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
-      <c r="D6" s="4">
-        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D6" s="3">
+        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E6">
@@ -1131,18 +1178,18 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
-      <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
-      <c r="D7" s="4">
-        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D7" s="3">
+        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E7">
@@ -1152,18 +1199,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
-      <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>6926</v>
       </c>
-      <c r="D8" s="4">
-        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D8" s="3">
+        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>40</v>
       </c>
       <c r="E8">
@@ -1173,18 +1220,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
-      <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
-      <c r="D9" s="4">
-        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D9" s="3">
+        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
       <c r="E9">
@@ -1194,18 +1241,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
-      <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+      <c r="C10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
-      <c r="D10" s="4">
-        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D10" s="3">
+        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E10">
@@ -1214,9 +1261,148 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="2" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="6" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f>VLOOKUP(A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="6" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f>VLOOKUP(A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f>VLOOKUP(A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f>VLOOKUP(A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>VLOOKUP(A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f>VLOOKUP(A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,8 +1423,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1250,195 +1436,357 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
-      <c r="C2" s="7">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C2" s="6">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>52</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>D2-10</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E10" si="0">D3-10</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E19" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
-      <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
-      <c r="D4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
-      <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
-      <c r="D5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
-      <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
-      <c r="D6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
-      <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
-      <c r="D7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
-      <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>3000</v>
       </c>
-      <c r="D8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Noraquick (Gabapentin 300mg)</v>
       </c>
-      <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="D9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celevox (Levofloxacin 500mg)</v>
       </c>
-      <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>12000</v>
       </c>
-      <c r="D10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>42</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="6" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="6" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="6" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="6" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="6" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,8 +1808,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1473,219 +1821,478 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
-      <c r="C2" s="7">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C2" s="6">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>52</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>D2-10</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E11" si="0">D3-10</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E25" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
-      <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
-      <c r="D4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
-      <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
-      <c r="D5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
-      <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
-      <c r="D6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
-      <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
-      <c r="D7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Noraquick (Gabapentin 300mg)</v>
       </c>
-      <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="D8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Lucass 200 (Cefpodoxime)</v>
       </c>
-      <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>14700</v>
       </c>
-      <c r="D9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
-      <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6926</v>
       </c>
-      <c r="D10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>40</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celevox (Levofloxacin 500mg)</v>
       </c>
-      <c r="C11" s="7">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+      <c r="C11" s="6">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>12000</v>
       </c>
-      <c r="D11" s="7">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+      <c r="D11" s="6">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>42</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Aluantine (Almagate 500mg)</v>
+      </c>
+      <c r="C12" s="6">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>8000</v>
+      </c>
+      <c r="D12" s="6">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="C13" s="6">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>10800</v>
+      </c>
+      <c r="D13" s="6">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="6" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="6" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="6" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="6" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="6" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="6" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="6" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="6" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="6" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="6" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E2FE7-B355-304F-A5BA-B560CFF51FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490C3D3-55F0-834B-9B9D-482D0C110C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
-    <sheet name="64-Lý Thanh Lãm" sheetId="1" r:id="rId2"/>
-    <sheet name="66-Lý Văn Phái" sheetId="2" r:id="rId3"/>
-    <sheet name="94-Trần Thị Diễm" sheetId="4" r:id="rId4"/>
+    <sheet name="Lý Thanh Lãm" sheetId="1" r:id="rId2"/>
+    <sheet name="57-Lý Văn Phái" sheetId="2" r:id="rId3"/>
+    <sheet name="22-Trần Thị Diễm" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490C3D3-55F0-834B-9B9D-482D0C110C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF596D-AF2C-F041-ADBD-B50C9FA7710A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
-    <sheet name="Lý Thanh Lãm" sheetId="1" r:id="rId2"/>
+    <sheet name="56-Lý Thanh Lãm" sheetId="1" r:id="rId2"/>
     <sheet name="57-Lý Văn Phái" sheetId="2" r:id="rId3"/>
     <sheet name="22-Trần Thị Diễm" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F6CBA-0CF8-2445-AA87-C94701A4D93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E247A-188D-A449-9549-4E6906C4841F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>TEN</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Khải</t>
+  </si>
+  <si>
+    <t>LEV001</t>
+  </si>
+  <si>
+    <t>BON008</t>
   </si>
 </sst>
 </file>
@@ -264,55 +270,55 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>BAN003</v>
+            <v>ARD001</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+            <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
           </cell>
           <cell r="D3">
-            <v>6900</v>
+            <v>0</v>
           </cell>
           <cell r="E3">
-            <v>52</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>BON008</v>
+            <v>BIS009</v>
           </cell>
           <cell r="C4" t="str">
-            <v>Bonzacim (Rosuvastatin 10mg)</v>
+            <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
           </cell>
           <cell r="D4">
-            <v>8900</v>
+            <v>0</v>
           </cell>
           <cell r="E4">
-            <v>55</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>OME001</v>
+            <v>BAN003</v>
           </cell>
           <cell r="C5" t="str">
-            <v>BS One (Omega3 Fish Oil 1000mg)</v>
+            <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
           </cell>
           <cell r="D5">
-            <v>4000</v>
+            <v>6900</v>
           </cell>
           <cell r="E5">
-            <v>45</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>CAR007</v>
+            <v>BON008</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Cardorite (Rosuvastatin 20mg)</v>
+            <v>Bonzacim (Rosuvastatin 10mg)</v>
           </cell>
           <cell r="D6">
-            <v>13000</v>
+            <v>8900</v>
           </cell>
           <cell r="E6">
             <v>55</v>
@@ -320,41 +326,41 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>CEF033</v>
+            <v>OME001</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Cefass (Etoricoxib 90mg)</v>
+            <v>BS One (Omega3 Fish Oil 1000mg)</v>
           </cell>
           <cell r="D7">
-            <v>9000</v>
+            <v>4000</v>
           </cell>
           <cell r="E7">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>CEL019</v>
+            <v>CAR007</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Celevox (Levofloxacin 500mg)</v>
+            <v>Cardorite (Rosuvastatin 20mg)</v>
           </cell>
           <cell r="D8">
-            <v>12000</v>
+            <v>13000</v>
           </cell>
           <cell r="E8">
-            <v>42</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>CEL003</v>
+            <v>CEF033</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Celivite (Multivitamin &amp; Minerals)</v>
+            <v>Cefass (Etoricoxib 90mg)</v>
           </cell>
           <cell r="D9">
-            <v>3000</v>
+            <v>9000</v>
           </cell>
           <cell r="E9">
             <v>55</v>
@@ -362,321 +368,321 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ROW002</v>
+            <v>CEL019</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Chondrasil (Allopurinol 300mg)</v>
+            <v>Celevox (Levofloxacin 500mg)</v>
           </cell>
           <cell r="D10">
-            <v>3700</v>
+            <v>12000</v>
           </cell>
           <cell r="E10">
-            <v>55</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>CLE002</v>
+            <v>CEL003</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Cimrinat (Clarithomycin 500mg)</v>
+            <v>Celivite (Multivitamin &amp; Minerals)</v>
           </cell>
           <cell r="D11">
-            <v>24000</v>
+            <v>3000</v>
           </cell>
           <cell r="E11">
-            <v>52</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ESO002</v>
+            <v>ROW002</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Esofar (Esomeprazole 40mg)</v>
+            <v>Chondrasil (Allopurinol 300mg)</v>
           </cell>
           <cell r="D12">
-            <v>14000</v>
+            <v>3700</v>
           </cell>
           <cell r="E12">
-            <v>52</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ERA001</v>
+            <v>CLE002</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Esotrax (Esomeprazole 20mg)</v>
+            <v>Cimrinat (Clarithomycin 500mg)</v>
           </cell>
           <cell r="D13">
-            <v>10800</v>
+            <v>24000</v>
           </cell>
           <cell r="E13">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>FAG001</v>
+            <v>ESO002</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Fagendol (Flunarizine 5mg)</v>
+            <v>Esofar (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D14">
-            <v>2600</v>
+            <v>14000</v>
           </cell>
           <cell r="E14">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>HEM005</v>
+            <v>ERA001</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Hemol (Methocarbamol 750mg)</v>
+            <v>Esotrax (Esomeprazole 20mg)</v>
           </cell>
           <cell r="D15">
-            <v>3100</v>
+            <v>10800</v>
           </cell>
           <cell r="E15">
-            <v>37</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>LOX002</v>
+            <v>FAG001</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Loxcip (Fexofenadine 180mg)</v>
+            <v>Fagendol (Flunarizine 5mg)</v>
           </cell>
           <cell r="D16">
-            <v>4700</v>
+            <v>2600</v>
           </cell>
           <cell r="E16">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>LUC001</v>
+            <v>HEM005</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Lucass 200 (Cefpodoxime)</v>
+            <v>Hemol (Methocarbamol 750mg)</v>
           </cell>
           <cell r="D17">
-            <v>14700</v>
+            <v>3100</v>
           </cell>
           <cell r="E17">
-            <v>54</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>MAX008</v>
+            <v>LOX002</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Maxezole 40 (Esomeprazole 40mg)</v>
+            <v>Loxcip (Fexofenadine 180mg)</v>
           </cell>
           <cell r="D18">
-            <v>14000</v>
+            <v>4700</v>
           </cell>
           <cell r="E18">
-            <v>55</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>MEX001</v>
+            <v>LUC001</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Mexams (Montelukast 5mg)</v>
+            <v>Lucass 200 (Cefpodoxime)</v>
           </cell>
           <cell r="D19">
-            <v>5100</v>
+            <v>14700</v>
           </cell>
           <cell r="E19">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>TRI025</v>
+            <v>MAX008</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Noraquick (Gabapentin 300mg)</v>
+            <v>Maxezole 40 (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D20">
-            <v>6000</v>
+            <v>14000</v>
           </cell>
           <cell r="E20">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>SOF001</v>
+            <v>LEV001</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Oftofacin (Atorvastatin 20mg)</v>
+            <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
           </cell>
           <cell r="D21">
-            <v>5000</v>
+            <v>2600</v>
           </cell>
           <cell r="E21">
-            <v>52</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>OPT001</v>
+            <v>MEX001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Optipan (Diacerhein 50mg)</v>
+            <v>Mexams (Montelukast 5mg)</v>
           </cell>
           <cell r="D22">
-            <v>9900</v>
+            <v>5100</v>
           </cell>
           <cell r="E22">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>OPE003</v>
+            <v>TRI025</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Originko (Ginkgo biloba 80mg)</v>
+            <v>Noraquick (Gabapentin 300mg)</v>
           </cell>
           <cell r="D23">
-            <v>8800</v>
+            <v>6000</v>
           </cell>
           <cell r="E23">
-            <v>37</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>PAL001</v>
+            <v>SOF001</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Palibone (Alendronic 70mg)</v>
+            <v>Oftofacin (Atorvastatin 20mg)</v>
           </cell>
           <cell r="D24">
-            <v>75000</v>
+            <v>5000</v>
           </cell>
           <cell r="E24">
-            <v>40</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>MER004</v>
+            <v>OPT001</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Pangelong (Rebamipide 100mg)</v>
+            <v>Optipan (Diacerhein 50mg)</v>
           </cell>
           <cell r="D25">
-            <v>4400</v>
+            <v>9900</v>
           </cell>
           <cell r="E25">
-            <v>43</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>RAB003</v>
+            <v>OPE003</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Pharcotinex</v>
+            <v>Originko (Ginkgo biloba 80mg)</v>
           </cell>
           <cell r="D26">
-            <v>3600</v>
+            <v>8800</v>
           </cell>
           <cell r="E26">
-            <v>35</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>PIC002</v>
+            <v>PAL001</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Picencal (Calcium &amp; Vitamin D)</v>
+            <v>Palibone (Alendronic 70mg)</v>
           </cell>
           <cell r="D27">
-            <v>2900</v>
+            <v>75000</v>
           </cell>
           <cell r="E27">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>SAG001</v>
+            <v>MER004</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Sagason (Clopidogrel 75mg)</v>
+            <v>Pangelong (Rebamipide 100mg)</v>
           </cell>
           <cell r="D28">
-            <v>7000</v>
+            <v>4400</v>
           </cell>
           <cell r="E28">
-            <v>54</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>SAN009</v>
+            <v>RAB003</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Sanaperol (Rabeprazol 20mg)</v>
+            <v>Pharcotinex</v>
           </cell>
           <cell r="D29">
-            <v>7900</v>
+            <v>3600</v>
           </cell>
           <cell r="E29">
-            <v>53</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>SOF003</v>
+            <v>PIC002</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Sopezid (Esomeprazole 40mg)</v>
+            <v>Picencal (Calcium &amp; Vitamin D)</v>
           </cell>
           <cell r="D30">
-            <v>15000</v>
+            <v>2900</v>
           </cell>
           <cell r="E30">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>TAL005</v>
+            <v>SAG001</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Talroma (Tiropramide 100mg)</v>
+            <v>Sagason (Clopidogrel 75mg)</v>
           </cell>
           <cell r="D31">
-            <v>4500</v>
+            <v>7000</v>
           </cell>
           <cell r="E31">
-            <v>44</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>TAR004</v>
+            <v>SAN009</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Tarfloz (Ferrous fumarate 300mg)</v>
+            <v>Sanaperol (Rabeprazol 20mg)</v>
           </cell>
           <cell r="D32">
-            <v>3600</v>
+            <v>7900</v>
           </cell>
           <cell r="E32">
             <v>55</v>
@@ -684,57 +690,127 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>TRI022</v>
+            <v>SOF003</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Trisova (Trimetazidine 20mg)</v>
+            <v>Sopezid (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D33">
-            <v>1700</v>
+            <v>15000</v>
           </cell>
           <cell r="E33">
-            <v>43</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>UVO001</v>
+            <v>TAL005</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Uvomo (Mosaprid citrat 5mg)</v>
+            <v>Talroma (Tiropramide 100mg)</v>
           </cell>
           <cell r="D34">
-            <v>3300</v>
+            <v>4500</v>
           </cell>
           <cell r="E34">
-            <v>55</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>VIN005</v>
+            <v>TAR004</v>
           </cell>
           <cell r="C35" t="str">
-            <v>Vinsalamin (Mesalamin 400mg)</v>
+            <v>Tarfloz (Ferrous fumarate 300mg)</v>
           </cell>
           <cell r="D35">
-            <v>7999.9989999999998</v>
+            <v>3600</v>
           </cell>
           <cell r="E35">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
+            <v>TES001</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Tesafu (Rupatadin 10mg)</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>TRI022</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Trisova (Trimetazidine 20mg)</v>
+          </cell>
+          <cell r="D37">
+            <v>1700</v>
+          </cell>
+          <cell r="E37">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>UVO001</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Uvomo (Mosaprid citrat 5mg)</v>
+          </cell>
+          <cell r="D38">
+            <v>3300</v>
+          </cell>
+          <cell r="E38">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>VIN005</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Vinsalamin (Mesalamin 400mg)</v>
+          </cell>
+          <cell r="D39">
+            <v>7999.9989999999998</v>
+          </cell>
+          <cell r="E39">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>ZLA001</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Zlatko-50 (Sitagliptin)</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
             <v>ZAN002</v>
           </cell>
-          <cell r="C36" t="str">
+          <cell r="C41" t="str">
             <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
           </cell>
-          <cell r="D36">
+          <cell r="D41">
             <v>6926</v>
           </cell>
-          <cell r="E36">
+          <cell r="E41">
             <v>40</v>
           </cell>
         </row>
@@ -1043,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D254FFF-8293-0A45-80B0-8E9C0554F8E3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1156,773 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
   <dimension ref="A1:E18"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Pharcotinex</v>
+      </c>
+      <c r="C2" s="6">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>3600</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP(A2, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>D2-10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="C3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">D3-10</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+      </c>
+      <c r="C4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>4000</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="C5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>3300</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
+      </c>
+      <c r="C6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="C7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>2900</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="C8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>6926</v>
+      </c>
+      <c r="D8" s="3">
+        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
+      </c>
+      <c r="C9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>24000</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="C10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="D10" s="3">
+        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="C11" s="6">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="D11" s="3">
+        <f>VLOOKUP(A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="C12" s="6">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>8900</v>
+      </c>
+      <c r="D12" s="3">
+        <f>VLOOKUP(A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f>VLOOKUP(A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f>VLOOKUP(A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>VLOOKUP(A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f>VLOOKUP(A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="C2" s="6">
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10">
+        <f>D2-10</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+      </c>
+      <c r="C3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>4000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E19" si="0">D3-10</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
+      </c>
+      <c r="C4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="D4" s="6">
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="C5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>2900</v>
+      </c>
+      <c r="D5" s="6">
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
+      </c>
+      <c r="C6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>24000</v>
+      </c>
+      <c r="D6" s="6">
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="C7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="D7" s="6">
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="C8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="D8" s="6">
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="C9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="D9" s="6">
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="C10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="D10" s="6">
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="C11" s="6">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="D11" s="6">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="C12" s="6">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="D12" s="6">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="C13" s="6">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>8900</v>
+      </c>
+      <c r="D13" s="6">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="6" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="6" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="6" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
@@ -1090,376 +1933,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Pharcotinex</v>
-      </c>
-      <c r="C2" s="6">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3600</v>
-      </c>
-      <c r="D2" s="3">
-        <f>VLOOKUP(A2, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <f>D2-10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Sopezid (Esomeprazole 40mg)</v>
-      </c>
-      <c r="C3" s="6">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>15000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3-10</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
-      </c>
-      <c r="C4" s="6">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>4000</v>
-      </c>
-      <c r="D4" s="3">
-        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
-      </c>
-      <c r="C5" s="6">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3300</v>
-      </c>
-      <c r="D5" s="3">
-        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
-      </c>
-      <c r="C6" s="6">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>13000</v>
-      </c>
-      <c r="D6" s="3">
-        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="C7" s="6">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>2900</v>
-      </c>
-      <c r="D7" s="3">
-        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
-      </c>
-      <c r="C8" s="6">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>6926</v>
-      </c>
-      <c r="D8" s="3">
-        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
-      </c>
-      <c r="C9" s="6">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>24000</v>
-      </c>
-      <c r="D9" s="3">
-        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
-      </c>
-      <c r="C10" s="6">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>9000</v>
-      </c>
-      <c r="D10" s="3">
-        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Fagendol (Flunarizine 5mg)</v>
-      </c>
-      <c r="C11" s="6">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>2600</v>
-      </c>
-      <c r="D11" s="3">
-        <f>VLOOKUP(A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="e">
-        <f>VLOOKUP($A12, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="6" t="e">
-        <f>VLOOKUP($A12, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>VLOOKUP(A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="e">
-        <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="6" t="e">
-        <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="e">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="6" t="e">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>VLOOKUP(A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="e">
-        <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="6" t="e">
-        <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>VLOOKUP(A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="e">
-        <f>VLOOKUP($A16, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>VLOOKUP($A16, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>VLOOKUP(A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="e">
-        <f>VLOOKUP($A17, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <f>VLOOKUP($A17, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>VLOOKUP(A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1489,11 +1962,11 @@
         <v>15000</v>
       </c>
       <c r="D2" s="6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" s="10">
         <f>D2-10</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1513,7 +1986,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E19" si="0">D3-10</f>
+        <f t="shared" ref="E3:E25" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -1603,36 +2076,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>6000</v>
+        <v>14700</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -1645,394 +2118,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Celevox (Levofloxacin 500mg)</v>
-      </c>
-      <c r="C10" s="6">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>12000</v>
-      </c>
-      <c r="D10" s="6">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Fagendol (Flunarizine 5mg)</v>
-      </c>
-      <c r="C11" s="6">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2600</v>
-      </c>
-      <c r="D11" s="6">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="e">
-        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="6" t="e">
-        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="6" t="e">
-        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="e">
-        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="6" t="e">
-        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="6" t="e">
-        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="e">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="6" t="e">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="6" t="e">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="e">
-        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="6" t="e">
-        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="6" t="e">
-        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="e">
-        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="6" t="e">
-        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="e">
-        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="6" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Sopezid (Esomeprazole 40mg)</v>
-      </c>
-      <c r="C2" s="6">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>15000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>52</v>
-      </c>
-      <c r="E2" s="10">
-        <f>D2-10</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
-      </c>
-      <c r="C3" s="6">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>4000</v>
-      </c>
-      <c r="D3" s="6">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E25" si="0">D3-10</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
-      </c>
-      <c r="C4" s="6">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>13000</v>
-      </c>
-      <c r="D4" s="6">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="C5" s="6">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2900</v>
-      </c>
-      <c r="D5" s="6">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
-      </c>
-      <c r="C6" s="6">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>24000</v>
-      </c>
-      <c r="D6" s="6">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
-      </c>
-      <c r="C7" s="6">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>9000</v>
-      </c>
-      <c r="D7" s="6">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Noraquick (Gabapentin 300mg)</v>
-      </c>
-      <c r="C8" s="6">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>6000</v>
-      </c>
-      <c r="D8" s="6">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Lucass 200 (Cefpodoxime)</v>
-      </c>
-      <c r="C9" s="6">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>14700</v>
-      </c>
-      <c r="D9" s="6">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -2116,39 +2201,45 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="e">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="6" t="e">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="C14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="6" t="e">
+        <v>2600</v>
+      </c>
+      <c r="D14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="e">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="6" t="e">
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="C15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="6" t="e">
+        <v>8900</v>
+      </c>
+      <c r="D15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E247A-188D-A449-9549-4E6906C4841F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E4AC8-D3CC-7A41-817A-5463DE1C1E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="3" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>TEN</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>BON008</t>
+  </si>
+  <si>
+    <t>TAR004</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,21 +1416,24 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="e">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="6" t="e">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="C13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="3" t="e">
+        <v>3600</v>
+      </c>
+      <c r="D13" s="3">
         <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1923,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,21 +2249,24 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="e">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="6" t="e">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="C16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="6" t="e">
+        <v>3600</v>
+      </c>
+      <c r="D16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E4AC8-D3CC-7A41-817A-5463DE1C1E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEDF5B-F12B-A04A-B381-37B2DD6743BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="3" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>TEN</t>
   </si>
@@ -63,9 +63,6 @@
     <t>UVO001</t>
   </si>
   <si>
-    <t>CAR007</t>
-  </si>
-  <si>
     <t>PIC002</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>TAR004</t>
+  </si>
+  <si>
+    <t>LIP003</t>
+  </si>
+  <si>
+    <t>YES001</t>
+  </si>
+  <si>
+    <t>SIL010</t>
   </si>
 </sst>
 </file>
@@ -814,6 +820,48 @@
             <v>6926</v>
           </cell>
           <cell r="E41">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>LIP003</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Bonzacim 20mg (Rosuvastatin 20mg)</v>
+          </cell>
+          <cell r="D42">
+            <v>12500</v>
+          </cell>
+          <cell r="E42">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>YES001</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Esorest (Gabapentin 300mg)</v>
+          </cell>
+          <cell r="D43">
+            <v>5200</v>
+          </cell>
+          <cell r="E43">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>SIL010</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Sita-Met (Sitagliptin 50/1000mg)</v>
+          </cell>
+          <cell r="D44">
+            <v>9000</v>
+          </cell>
+          <cell r="E44">
             <v>40</v>
           </cell>
         </row>
@@ -1146,7 +1194,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1157,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,12 +1230,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>VLOOKUP($A2, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
@@ -1222,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3-10</f>
+        <f t="shared" ref="E3:E17" si="0">D3-10</f>
         <v>42</v>
       </c>
     </row>
@@ -1274,19 +1322,19 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>13000</v>
+        <v>2900</v>
       </c>
       <c r="D6" s="3">
         <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1295,19 +1343,19 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>2900</v>
+        <v>6926</v>
       </c>
       <c r="D7" s="3">
         <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,19 +1364,19 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>6926</v>
+        <v>24000</v>
       </c>
       <c r="D8" s="3">
         <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,61 +1385,61 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="D9" s="3">
         <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>9000</v>
+        <v>2600</v>
       </c>
       <c r="D10" s="3">
         <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="C11" s="6">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>2600</v>
+        <v>8900</v>
       </c>
       <c r="D11" s="3">
         <f>VLOOKUP(A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,11 +1448,11 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
       </c>
       <c r="C12" s="6">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>8900</v>
+        <v>3600</v>
       </c>
       <c r="D12" s="3">
         <f>VLOOKUP(A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -1421,11 +1469,11 @@
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Bonzacim 20mg (Rosuvastatin 20mg)</v>
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3600</v>
+        <v>12500</v>
       </c>
       <c r="D13" s="3">
         <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -1437,39 +1485,45 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="e">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="6" t="e">
+        <v>Esorest (Gabapentin 300mg)</v>
+      </c>
+      <c r="C14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="3" t="e">
+        <v>5200</v>
+      </c>
+      <c r="D14" s="3">
         <f>VLOOKUP(A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="e">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="6" t="e">
+        <v>Sita-Met (Sitagliptin 50/1000mg)</v>
+      </c>
+      <c r="C15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="3" t="e">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="3">
         <f>VLOOKUP(A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1504,24 +1558,6 @@
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -1533,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1598,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E19" si="0">D3-10</f>
+        <f t="shared" ref="E3:E18" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -1608,40 +1644,40 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>13000</v>
+        <v>2900</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2900</v>
+        <v>24000</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1650,19 +1686,19 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1671,11 +1707,11 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -1692,19 +1728,19 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,49 +1749,49 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>12000</v>
+        <v>2600</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
       </c>
       <c r="C11" s="6">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
@@ -1763,11 +1799,11 @@
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,32 +1812,32 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="C12" s="6">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2600</v>
+        <v>8900</v>
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Bonzacim 20mg (Rosuvastatin 20mg)</v>
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>8900</v>
+        <v>12500</v>
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -1813,39 +1849,45 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="e">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="6" t="e">
+        <v>Esorest (Gabapentin 300mg)</v>
+      </c>
+      <c r="C14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="6" t="e">
+        <v>5200</v>
+      </c>
+      <c r="D14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="e">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="6" t="e">
+        <v>Sita-Met (Sitagliptin 50/1000mg)</v>
+      </c>
+      <c r="C15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="6" t="e">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,24 +1940,6 @@
         <v>#N/A</v>
       </c>
       <c r="E18" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="6" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -1927,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1952,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1992,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E25" si="0">D3-10</f>
+        <f t="shared" ref="E3:E24" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -2002,40 +2026,40 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>13000</v>
+        <v>2900</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2900</v>
+        <v>24000</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2044,53 +2068,53 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>6000</v>
+        <v>14700</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -2103,57 +2127,57 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>14700</v>
+        <v>6926</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>6926</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="C11" s="6">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -2170,40 +2194,40 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Aluantine (Almagate 500mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="C12" s="6">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>10800</v>
+        <v>2600</v>
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2212,19 +2236,19 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="C14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>2600</v>
+        <v>8900</v>
       </c>
       <c r="D14" s="6">
         <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,11 +2257,11 @@
       </c>
       <c r="B15" s="2" t="str">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
       </c>
       <c r="C15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>8900</v>
+        <v>3600</v>
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -2254,11 +2278,11 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Bonzacim 20mg (Rosuvastatin 20mg)</v>
       </c>
       <c r="C16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>3600</v>
+        <v>12500</v>
       </c>
       <c r="D16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
@@ -2269,43 +2293,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="e">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" s="6" t="e">
+        <v>Esorest (Gabapentin 300mg)</v>
+      </c>
+      <c r="C17" s="6">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="6" t="e">
+        <v>5200</v>
+      </c>
+      <c r="D17" s="6">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="e">
+        <v>52</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="6" t="e">
+        <v>Sita-Met (Sitagliptin 50/1000mg)</v>
+      </c>
+      <c r="C18" s="6">
         <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="6" t="e">
+        <v>9000</v>
+      </c>
+      <c r="D18" s="6">
         <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="e">
         <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2323,7 +2353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="e">
         <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2341,7 +2371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="e">
         <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2359,7 +2389,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="e">
         <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2377,7 +2407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="e">
         <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2395,7 +2425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="e">
         <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2409,24 +2439,6 @@
         <v>#N/A</v>
       </c>
       <c r="E24" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="e">
-        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" s="6" t="e">
-        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="6" t="e">
-        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEDF5B-F12B-A04A-B381-37B2DD6743BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BDBE49-CACB-FE4A-A5B3-0379C6429F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="2" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>TEN</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>SIL010</t>
+  </si>
+  <si>
+    <t>MOS001</t>
   </si>
 </sst>
 </file>
@@ -862,6 +865,20 @@
             <v>9000</v>
           </cell>
           <cell r="E44">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>MOS001</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Muscat (Mosapride citrate 5.0mg)</v>
+          </cell>
+          <cell r="D45">
+            <v>3000</v>
+          </cell>
+          <cell r="E45">
             <v>40</v>
           </cell>
         </row>
@@ -1207,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1287,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">D3-10</f>
+        <f t="shared" ref="E3:E16" si="0">D3-10</f>
         <v>42</v>
       </c>
     </row>
@@ -1527,39 +1544,44 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="e">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="6" t="e">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="C16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="3" t="e">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="3">
         <f>VLOOKUP(A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="e">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" s="6" t="e">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="C17" s="6">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="3" t="e">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="3">
         <f>VLOOKUP(A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1569,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1634,7 +1656,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E18" si="0">D3-10</f>
+        <f t="shared" ref="E3:E17" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -1891,21 +1913,23 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="e">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="6" t="e">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="C16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="6" t="e">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="6">
         <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="10">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1922,24 +1946,6 @@
         <v>#N/A</v>
       </c>
       <c r="E17" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="6" t="e">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -1954,7 +1960,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,21 +2342,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="e">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="6" t="e">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="C19" s="6">
         <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="6" t="e">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="6">
         <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">

--- a/dist/document/doctor_product/Ly Van Khai.xlsx
+++ b/dist/document/doctor_product/Ly Van Khai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khailv\Desktop\lamgift\dist\document\doctor_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BDBE49-CACB-FE4A-A5B3-0379C6429F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8B3A6-2FE3-434C-8439-0F852F78D2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16680" activeTab="2" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>TEN</t>
   </si>
@@ -124,6 +133,9 @@
   </si>
   <si>
     <t>MOS001</t>
+  </si>
+  <si>
+    <t>ADR005</t>
   </si>
 </sst>
 </file>
@@ -879,6 +891,20 @@
             <v>3000</v>
           </cell>
           <cell r="E45">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>ADR005</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Abanuro (Nicergolin 30mg)</v>
+          </cell>
+          <cell r="D46">
+            <v>16800</v>
+          </cell>
+          <cell r="E46">
             <v>40</v>
           </cell>
         </row>
@@ -1191,14 +1217,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1222,18 +1248,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1459,7 +1485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1543,7 +1569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1581,6 +1607,26 @@
         <v>40</v>
       </c>
       <c r="E17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Abanuro (Nicergolin 30mg)</v>
+      </c>
+      <c r="C18" s="6">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>16800</v>
+      </c>
+      <c r="D18" s="3">
+        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="E18">
         <v>35</v>
       </c>
     </row>
@@ -1593,16 +1639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1849,7 +1895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="e">
         <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -1963,12 +2009,12 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +2031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2026,7 +2072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2068,7 +2114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2089,7 +2135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2110,7 +2156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2152,7 +2198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2194,7 +2240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2215,7 +2261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2236,7 +2282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2257,7 +2303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2299,7 +2345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2320,7 +2366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2341,7 +2387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="e">
         <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2380,7 +2426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="e">
         <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2398,7 +2444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B22" s="2" t="e">
         <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2416,7 +2462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="e">
         <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2434,7 +2480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="e">
         <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>#N/A</v>
